--- a/inputs/Gerd_Eurostat.xlsx
+++ b/inputs/Gerd_Eurostat.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin Ramirez\Desktop\Universidad Europea\Data mining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edurodriguez/Desktop/GitHub/DATAMINIG_1/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFDFB21-7FCB-4CD3-A6B5-710C78A15999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61726EB-8D7E-9443-B10D-B1520A5F63C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F45C87A-8511-400E-91EF-0D3EE213A817}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{0F45C87A-8511-400E-91EF-0D3EE213A817}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3101,7 +3110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3400,15 +3409,15 @@
   <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M206"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3818,7 +3827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4064,7 +4073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -4474,7 +4483,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>213</v>
       </c>
@@ -4679,7 +4688,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -4802,7 +4811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>234</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -4925,7 +4934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>248</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>254</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>267</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>283</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>291</v>
       </c>
@@ -5335,7 +5344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -5417,7 +5426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>313</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>317</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>338</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>347</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>358</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>367</v>
       </c>
@@ -5704,7 +5713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -5745,7 +5754,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>381</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>389</v>
       </c>
@@ -5827,7 +5836,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>395</v>
       </c>
@@ -5868,7 +5877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>402</v>
       </c>
@@ -5909,7 +5918,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>410</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>419</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -6032,7 +6041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>435</v>
       </c>
@@ -6073,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>443</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>453</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -6196,7 +6205,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>472</v>
       </c>
@@ -6237,7 +6246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>479</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>485</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>488</v>
       </c>
@@ -6360,7 +6369,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>496</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>500</v>
       </c>
@@ -6442,7 +6451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>503</v>
       </c>
@@ -6483,7 +6492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>510</v>
       </c>
@@ -6524,7 +6533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>516</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>523</v>
       </c>
@@ -6647,7 +6656,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>531</v>
       </c>
@@ -6688,7 +6697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>536</v>
       </c>
@@ -6729,7 +6738,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>548</v>
       </c>
@@ -6770,7 +6779,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -6811,7 +6820,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>567</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>574</v>
       </c>
@@ -6893,7 +6902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>585</v>
       </c>
@@ -6934,7 +6943,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>595</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>596</v>
       </c>
@@ -7016,7 +7025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>605</v>
       </c>
@@ -7057,7 +7066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>613</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>616</v>
       </c>
@@ -7139,7 +7148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>624</v>
       </c>
@@ -7180,7 +7189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>630</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>639</v>
       </c>
@@ -7262,7 +7271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>643</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>648</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>659</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>661</v>
       </c>
@@ -7426,7 +7435,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>667</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>674</v>
       </c>
@@ -7508,7 +7517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>681</v>
       </c>
@@ -7549,7 +7558,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>687</v>
       </c>
@@ -7590,7 +7599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>694</v>
       </c>
@@ -7631,7 +7640,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>699</v>
       </c>
@@ -7672,7 +7681,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>705</v>
       </c>
@@ -7713,7 +7722,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>711</v>
       </c>
@@ -7754,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>715</v>
       </c>
@@ -7795,7 +7804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>717</v>
       </c>
@@ -7836,7 +7845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>728</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>736</v>
       </c>
@@ -7918,7 +7927,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>741</v>
       </c>
@@ -7959,7 +7968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>744</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>750</v>
       </c>
@@ -8041,7 +8050,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>751</v>
       </c>
@@ -8082,7 +8091,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>754</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>759</v>
       </c>
@@ -8164,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>762</v>
       </c>
@@ -8205,7 +8214,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>769</v>
       </c>
@@ -8246,7 +8255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>774</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>782</v>
       </c>
@@ -8328,7 +8337,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>786</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>793</v>
       </c>
@@ -8410,7 +8419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>797</v>
       </c>
@@ -8451,7 +8460,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>803</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>814</v>
       </c>
@@ -8533,7 +8542,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>819</v>
       </c>
@@ -8574,7 +8583,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>824</v>
       </c>
@@ -8615,7 +8624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>834</v>
       </c>
@@ -8656,7 +8665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>835</v>
       </c>
@@ -8697,7 +8706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>836</v>
       </c>
@@ -8738,7 +8747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>840</v>
       </c>
@@ -8779,7 +8788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>842</v>
       </c>
@@ -8820,7 +8829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>844</v>
       </c>
@@ -8861,7 +8870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>846</v>
       </c>
@@ -8902,7 +8911,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>848</v>
       </c>
@@ -8943,7 +8952,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>849</v>
       </c>
@@ -8984,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>853</v>
       </c>
@@ -9025,7 +9034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>855</v>
       </c>
@@ -9066,7 +9075,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>859</v>
       </c>
@@ -9107,7 +9116,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>860</v>
       </c>
@@ -9148,7 +9157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>862</v>
       </c>
@@ -9189,7 +9198,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>863</v>
       </c>
@@ -9230,7 +9239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>866</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>869</v>
       </c>
@@ -9312,7 +9321,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>873</v>
       </c>
@@ -9353,7 +9362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>876</v>
       </c>
@@ -9394,7 +9403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>877</v>
       </c>
@@ -9435,7 +9444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>885</v>
       </c>
@@ -9476,7 +9485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>890</v>
       </c>
@@ -9517,7 +9526,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>892</v>
       </c>
@@ -9558,7 +9567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>894</v>
       </c>
@@ -9599,7 +9608,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>896</v>
       </c>
@@ -9640,7 +9649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>897</v>
       </c>
@@ -9681,7 +9690,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>899</v>
       </c>
@@ -9722,7 +9731,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>901</v>
       </c>
@@ -9763,7 +9772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>902</v>
       </c>
@@ -9804,7 +9813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>904</v>
       </c>
@@ -9845,7 +9854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>906</v>
       </c>
@@ -9886,7 +9895,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>908</v>
       </c>
@@ -9927,7 +9936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>910</v>
       </c>
@@ -9968,7 +9977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>911</v>
       </c>
@@ -10009,7 +10018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>914</v>
       </c>
@@ -10050,7 +10059,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>915</v>
       </c>
@@ -10091,7 +10100,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>917</v>
       </c>
@@ -10132,7 +10141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>920</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>924</v>
       </c>
@@ -10214,7 +10223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>930</v>
       </c>
@@ -10255,7 +10264,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>934</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>935</v>
       </c>
@@ -10337,7 +10346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>936</v>
       </c>
@@ -10378,7 +10387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>937</v>
       </c>
@@ -10419,7 +10428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>938</v>
       </c>
@@ -10460,7 +10469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>939</v>
       </c>
@@ -10501,7 +10510,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>941</v>
       </c>
@@ -10542,7 +10551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>942</v>
       </c>
@@ -10583,7 +10592,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>945</v>
       </c>
@@ -10624,7 +10633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>946</v>
       </c>
@@ -10665,7 +10674,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>947</v>
       </c>
@@ -10706,7 +10715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>949</v>
       </c>
@@ -10747,7 +10756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>950</v>
       </c>
@@ -10788,7 +10797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>954</v>
       </c>
@@ -10829,7 +10838,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>955</v>
       </c>
@@ -10870,7 +10879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>957</v>
       </c>
@@ -10911,7 +10920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>958</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>960</v>
       </c>
@@ -10993,7 +11002,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>961</v>
       </c>
@@ -11034,7 +11043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>964</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>965</v>
       </c>
@@ -11116,7 +11125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>966</v>
       </c>
@@ -11157,7 +11166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>967</v>
       </c>
@@ -11198,7 +11207,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>968</v>
       </c>
@@ -11239,7 +11248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>969</v>
       </c>
@@ -11280,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>970</v>
       </c>
@@ -11321,7 +11330,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>971</v>
       </c>
@@ -11362,7 +11371,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>974</v>
       </c>
@@ -11403,7 +11412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>975</v>
       </c>
@@ -11444,7 +11453,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>976</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>980</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>981</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>982</v>
       </c>
@@ -11608,7 +11617,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>983</v>
       </c>
@@ -11649,7 +11658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>987</v>
       </c>
@@ -11690,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>989</v>
       </c>
@@ -11731,7 +11740,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>990</v>
       </c>
@@ -11772,7 +11781,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>995</v>
       </c>
@@ -11813,7 +11822,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1000</v>
       </c>
